--- a/Comparison_Matrices/reliability.xlsx
+++ b/Comparison_Matrices/reliability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guribhangu/development/research/qatch/Comparison_Matrices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F353FC3-A781-914B-94BE-4ED2D1B8A85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22D96DC-0EE7-434F-92FC-C53183911C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{7A3D686B-6246-0948-A8FC-2C913135D62A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20660" xr2:uid="{7A3D686B-6246-0948-A8FC-2C913135D62A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
